--- a/src/products.xlsx
+++ b/src/products.xlsx
@@ -57,6 +57,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -93,8 +96,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -378,13 +382,13 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.75" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -395,7 +399,7 @@
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -409,8 +413,8 @@
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2">
-        <v>49</v>
+      <c r="C2" s="1">
+        <v>42.9</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -423,7 +427,7 @@
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>17</v>
       </c>
       <c r="D3" t="s">
